--- a/tradept/Excel/Localization/english/J角色属性字段_RoleStatus_HJJH_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J角色属性字段_RoleStatus_HJJH_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC01ADEB-A6ED-4DE1-983C-A924A6A33708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD3014-8B9F-49CB-B9D8-357F47D046C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -46,18 +46,12 @@
     <t>halo_月白光华光环</t>
   </si>
   <si>
-    <t>halo_Celestial Radiance Aura</t>
-  </si>
-  <si>
     <t>1000范围内的友军获得40%的伤害减免</t>
   </si>
   <si>
     <t>halo_月白光华光环2</t>
   </si>
   <si>
-    <t>halo_Celestial Radiance Aura 2</t>
-  </si>
-  <si>
     <t>1000范围内的友军获得60%的伤害减免</t>
   </si>
   <si>
@@ -97,34 +91,40 @@
     <t>角色可以劝降超过四级头衔的敌对英雄</t>
   </si>
   <si>
-    <t>Poción Semanal de Rosa Blanca (L)</t>
-  </si>
-  <si>
     <t>Trigo Semanal</t>
   </si>
   <si>
     <t>Carne Seca Semanal</t>
   </si>
   <si>
-    <t>Persuasión Diplomática</t>
-  </si>
-  <si>
-    <t>Reduce el daño recibido por todos los aliados dentro de 1000 codos en un 40%.</t>
-  </si>
-  <si>
-    <t>Reduce el daño recibido por todos los aliados dentro de 1000 codos en un 60%.</t>
-  </si>
-  <si>
-    <t>Obtén [%treasure_每周白蔷薇秘药大%] Poción de Rosa Blanca (L) por semana.</t>
-  </si>
-  <si>
-    <t>Obtén [%treasure_每周风干肉%] Carne Seca por semana.</t>
-  </si>
-  <si>
-    <t>Puede persuadir a héroes que tengan títulos cuatro o más rangos inferiores al propio.</t>
-  </si>
-  <si>
-    <t>Obtén [%treasure_每周小麦%] trigo por semana.</t>
+    <t>halo_Aura de Radiância Celestial</t>
+  </si>
+  <si>
+    <t>halo_Aura de Radiância Celestial 2</t>
+  </si>
+  <si>
+    <t>Poção Semanal de Rosa Branca (G)</t>
+  </si>
+  <si>
+    <t>Persuasão Diplomática</t>
+  </si>
+  <si>
+    <t>Reduz o dano recebido por todos os aliados num raio de 1000 cúbitos em 40%.</t>
+  </si>
+  <si>
+    <t>Reduz o dano recebido por todos os aliados num raio de 1000 cúbitos em 60%.</t>
+  </si>
+  <si>
+    <t>Obtenha [%treasure_每周白蔷薇秘药大%] Poção de Rosa Branca (G) por semana.</t>
+  </si>
+  <si>
+    <t>Obtenha [%treasure_每周小麦%] Trigo por semana.</t>
+  </si>
+  <si>
+    <t>Obtenha [%treasure_每周风干肉%] Carne Seca por semana.</t>
+  </si>
+  <si>
+    <t>Pode persuadir heróis que possuam títulos quatro ou mais fileiras abaixo do próprio.</t>
   </si>
 </sst>
 </file>
@@ -241,42 +241,42 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -627,11 +627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
       <c r="A1" s="6" t="s">
@@ -664,16 +669,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>29</v>
@@ -681,22 +686,22 @@
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>30</v>
@@ -704,94 +709,94 @@
     </row>
     <row r="4" spans="1:7" ht="67.5">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="94.5">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.25">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
